--- a/COV.xlsx
+++ b/COV.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommasofaorlin/Desktop/Covid19/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962E93AB-26DC-B845-B7C8-D2B0BD8FBE8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Tabella 1</t>
   </si>
@@ -22,11 +41,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -38,7 +54,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -179,81 +195,140 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -452,7 +527,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -471,7 +546,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -501,7 +576,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -527,7 +602,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -553,7 +628,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -579,7 +654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -605,7 +680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -631,7 +706,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -657,7 +732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -683,7 +758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -709,7 +784,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -722,9 +797,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -741,7 +822,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -760,7 +841,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -786,7 +867,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -812,7 +893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -838,7 +919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -864,7 +945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -890,7 +971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -916,7 +997,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,7 +1023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -968,7 +1049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -994,7 +1075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,9 +1088,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1023,7 +1110,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1042,7 +1129,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1124,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1150,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,7 +1289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1228,7 +1315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +1341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1280,7 +1367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1293,517 +1380,544 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" t="s" s="4">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="11">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
         <v>13</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>17660</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="13">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12">
         <v>14955</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="11">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
         <v>14</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>21157</v>
       </c>
-      <c r="C8" s="13">
-        <f>B8-B7</f>
+      <c r="C8" s="12">
+        <f t="shared" ref="C8:C20" si="0">B8-B7</f>
         <v>3497</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="13">
+      <c r="D8" s="9"/>
+      <c r="E8" s="12">
         <v>17750</v>
       </c>
-      <c r="F8" s="13">
-        <f>E8-E7</f>
+      <c r="F8" s="12">
+        <f t="shared" ref="F8:F20" si="1">E8-E7</f>
         <v>2795</v>
       </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="11">
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
         <v>15</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>24747</v>
       </c>
-      <c r="C9" s="13">
-        <f>B9-B8</f>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
         <v>3590</v>
       </c>
-      <c r="D9" s="13">
-        <f>C9/C8</f>
-        <v>1.02659422362025</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="D9" s="12">
+        <f t="shared" ref="D9:D20" si="2">C9/C8</f>
+        <v>1.0265942236202459</v>
+      </c>
+      <c r="E9" s="12">
         <v>20603</v>
       </c>
-      <c r="F9" s="13">
-        <f>E9-E8</f>
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
         <v>2853</v>
       </c>
-      <c r="G9" s="13">
-        <f>F9/F8</f>
-        <v>1.02075134168157</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="11">
+      <c r="G9" s="12">
+        <f t="shared" ref="G9:G20" si="3">F9/F8</f>
+        <v>1.0207513416815743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
         <v>16</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>27900</v>
       </c>
-      <c r="C10" s="13">
-        <f>B10-B9</f>
+      <c r="C10" s="12">
+        <f t="shared" si="0"/>
         <v>3153</v>
       </c>
-      <c r="D10" s="13">
-        <f>C10/C9</f>
-        <v>0.878272980501393</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D10" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8782729805013928</v>
+      </c>
+      <c r="E10" s="12">
         <v>23073</v>
       </c>
-      <c r="F10" s="13">
-        <f>E10-E9</f>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
         <v>2470</v>
       </c>
-      <c r="G10" s="13">
-        <f>F10/F9</f>
-        <v>0.865755345250613</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="11">
+      <c r="G10" s="12">
+        <f t="shared" si="3"/>
+        <v>0.86575534525061337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
         <v>17</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>31506</v>
       </c>
-      <c r="C11" s="13">
-        <f>B11-B10</f>
+      <c r="C11" s="12">
+        <f t="shared" si="0"/>
         <v>3606</v>
       </c>
-      <c r="D11" s="13">
-        <f>C11/C10</f>
-        <v>1.14367269267364</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="D11" s="12">
+        <f t="shared" si="2"/>
+        <v>1.1436726926736442</v>
+      </c>
+      <c r="E11" s="12">
         <v>26062</v>
       </c>
-      <c r="F11" s="13">
-        <f>E11-E10</f>
+      <c r="F11" s="12">
+        <f t="shared" si="1"/>
         <v>2989</v>
       </c>
-      <c r="G11" s="13">
-        <f>F11/F10</f>
-        <v>1.21012145748988</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="11">
+      <c r="G11" s="12">
+        <f t="shared" si="3"/>
+        <v>1.2101214574898786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
         <v>18</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>35713</v>
       </c>
-      <c r="C12" s="13">
-        <f>B12-B11</f>
+      <c r="C12" s="12">
+        <f t="shared" si="0"/>
         <v>4207</v>
       </c>
-      <c r="D12" s="13">
-        <f>C12/C11</f>
-        <v>1.16666666666667</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="12">
+        <f t="shared" si="2"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="E12" s="12">
         <v>28710</v>
       </c>
-      <c r="F12" s="13">
-        <f>E12-E11</f>
+      <c r="F12" s="12">
+        <f t="shared" si="1"/>
         <v>2648</v>
       </c>
-      <c r="G12" s="13">
-        <f>F12/F11</f>
-        <v>0.885915021746403</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="11">
+      <c r="G12" s="12">
+        <f t="shared" si="3"/>
+        <v>0.88591502174640346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
         <v>19</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>41035</v>
       </c>
-      <c r="C13" s="13">
-        <f>B13-B12</f>
+      <c r="C13" s="12">
+        <f t="shared" si="0"/>
         <v>5322</v>
       </c>
-      <c r="D13" s="13">
-        <f>C13/C12</f>
-        <v>1.26503446636558</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="D13" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2650344663655813</v>
+      </c>
+      <c r="E13" s="12">
         <v>33190</v>
       </c>
-      <c r="F13" s="13">
-        <f>E13-E12</f>
+      <c r="F13" s="12">
+        <f t="shared" si="1"/>
         <v>4480</v>
       </c>
-      <c r="G13" s="13">
-        <f>F13/F12</f>
-        <v>1.69184290030211</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="11">
+      <c r="G13" s="12">
+        <f t="shared" si="3"/>
+        <v>1.6918429003021147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
         <v>20</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>47021</v>
       </c>
-      <c r="C14" s="13">
-        <f>B14-B13</f>
+      <c r="C14" s="12">
+        <f t="shared" si="0"/>
         <v>5986</v>
       </c>
-      <c r="D14" s="13">
-        <f>C14/C13</f>
-        <v>1.12476512589252</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="D14" s="12">
+        <f t="shared" si="2"/>
+        <v>1.1247651258925215</v>
+      </c>
+      <c r="E14" s="12">
         <v>37860</v>
       </c>
-      <c r="F14" s="13">
-        <f>E14-E13</f>
+      <c r="F14" s="12">
+        <f t="shared" si="1"/>
         <v>4670</v>
       </c>
-      <c r="G14" s="13">
-        <f>F14/F13</f>
-        <v>1.04241071428571</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="11">
+      <c r="G14" s="12">
+        <f t="shared" si="3"/>
+        <v>1.0424107142857142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
         <v>21</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>53578</v>
       </c>
-      <c r="C15" s="13">
-        <f>B15-B14</f>
+      <c r="C15" s="12">
+        <f t="shared" si="0"/>
         <v>6557</v>
       </c>
-      <c r="D15" s="13">
-        <f>C15/C14</f>
-        <v>1.09538924156365</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="D15" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0953892415636486</v>
+      </c>
+      <c r="E15" s="12">
         <v>42681</v>
       </c>
-      <c r="F15" s="13">
-        <f>E15-E14</f>
+      <c r="F15" s="12">
+        <f t="shared" si="1"/>
         <v>4821</v>
       </c>
-      <c r="G15" s="13">
-        <f>F15/F14</f>
-        <v>1.03233404710921</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="11">
+      <c r="G15" s="12">
+        <f t="shared" si="3"/>
+        <v>1.0323340471092077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
         <v>22</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>59138</v>
       </c>
-      <c r="C16" s="13">
-        <f>B16-B15</f>
+      <c r="C16" s="12">
+        <f t="shared" si="0"/>
         <v>5560</v>
       </c>
-      <c r="D16" s="13">
-        <f>C16/C15</f>
-        <v>0.847948757053531</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="D16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.84794875705353057</v>
+      </c>
+      <c r="E16" s="12">
         <v>46638</v>
       </c>
-      <c r="F16" s="13">
-        <f>E16-E15</f>
+      <c r="F16" s="12">
+        <f t="shared" si="1"/>
         <v>3957</v>
       </c>
-      <c r="G16" s="13">
-        <f>F16/F15</f>
+      <c r="G16" s="12">
+        <f t="shared" si="3"/>
         <v>0.820784069695084</v>
       </c>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="11">
+    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
         <v>23</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>63927</v>
       </c>
-      <c r="C17" s="13">
-        <f>B17-B16</f>
+      <c r="C17" s="12">
+        <f t="shared" si="0"/>
         <v>4789</v>
       </c>
-      <c r="D17" s="13">
-        <f>C17/C16</f>
-        <v>0.861330935251799</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="D17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8613309352517986</v>
+      </c>
+      <c r="E17" s="12">
         <v>50418</v>
       </c>
-      <c r="F17" s="13">
-        <f>E17-E16</f>
+      <c r="F17" s="12">
+        <f t="shared" si="1"/>
         <v>3780</v>
       </c>
-      <c r="G17" s="13">
-        <f>F17/F16</f>
-        <v>0.955269143290371</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="11">
+      <c r="G17" s="12">
+        <f t="shared" si="3"/>
+        <v>0.95526914329037149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
         <v>24</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>69176</v>
       </c>
-      <c r="C18" s="13">
-        <f>B18-B17</f>
+      <c r="C18" s="12">
+        <f t="shared" si="0"/>
         <v>5249</v>
       </c>
-      <c r="D18" s="13">
-        <f>C18/C17</f>
-        <v>1.09605345583629</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="D18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0960534558362915</v>
+      </c>
+      <c r="E18" s="12">
         <v>54039</v>
       </c>
-      <c r="F18" s="13">
-        <f>E18-E17</f>
+      <c r="F18" s="12">
+        <f t="shared" si="1"/>
         <v>3621</v>
       </c>
-      <c r="G18" s="13">
-        <f>F18/F17</f>
-        <v>0.957936507936508</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="11">
+      <c r="G18" s="12">
+        <f t="shared" si="3"/>
+        <v>0.95793650793650797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
         <v>25</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>74386</v>
       </c>
-      <c r="C19" s="13">
-        <f>B19-B18</f>
+      <c r="C19" s="12">
+        <f t="shared" si="0"/>
         <v>5210</v>
       </c>
-      <c r="D19" s="13">
-        <f>C19/C18</f>
-        <v>0.992570013335873</v>
-      </c>
-      <c r="E19" s="13">
+      <c r="D19" s="12">
+        <f t="shared" si="2"/>
+        <v>0.99257001333587347</v>
+      </c>
+      <c r="E19" s="12">
         <v>57521</v>
       </c>
-      <c r="F19" s="13">
-        <f>E19-E18</f>
+      <c r="F19" s="12">
+        <f t="shared" si="1"/>
         <v>3482</v>
       </c>
-      <c r="G19" s="13">
-        <f>F19/F18</f>
-        <v>0.96161281413974</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="G19" s="12">
+        <f t="shared" si="3"/>
+        <v>0.96161281413974042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>26</v>
+      </c>
+      <c r="B20" s="8">
+        <v>80539</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" si="0"/>
+        <v>6153</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="2"/>
+        <v>1.1809980806142035</v>
+      </c>
+      <c r="E20" s="9">
+        <v>62013</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="1"/>
+        <v>4492</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="3"/>
+        <v>1.2900631820792647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
